--- a/src/test/resources/NewUsers.xlsx
+++ b/src/test/resources/NewUsers.xlsx
@@ -353,44 +353,52 @@
     <t>Patna</t>
   </si>
   <si>
-    <t>arun22@mail.com</t>
-  </si>
-  <si>
-    <t>meera22@mail.com</t>
-  </si>
-  <si>
-    <t>rahul23@mail.com</t>
-  </si>
-  <si>
-    <t>sita24@mail.com</t>
-  </si>
-  <si>
-    <t>vikram25@mail.com</t>
-  </si>
-  <si>
-    <t>priya26@mail.com</t>
-  </si>
-  <si>
-    <t>amit27@mail.com</t>
-  </si>
-  <si>
-    <t>neha28@mail.com</t>
-  </si>
-  <si>
-    <t>rohan29@mail.com</t>
-  </si>
-  <si>
-    <t>ananya22@mail.com</t>
+    <t>arun1232@mail.com</t>
+  </si>
+  <si>
+    <t>meera1222@mail.com</t>
+  </si>
+  <si>
+    <t>rahul233@mail.com</t>
+  </si>
+  <si>
+    <t>sita24@2mail.com</t>
+  </si>
+  <si>
+    <t>vikram225@mail.com</t>
+  </si>
+  <si>
+    <t>priya216@mail.com</t>
+  </si>
+  <si>
+    <t>amit271@mail.com</t>
+  </si>
+  <si>
+    <t>neha218@mail.com</t>
+  </si>
+  <si>
+    <t>rohan219@mail.com</t>
+  </si>
+  <si>
+    <t>ananya122@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,13 +421,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -701,7 +712,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +774,7 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C2" t="s">
@@ -816,7 +827,7 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C3" t="s">
@@ -869,7 +880,7 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C4" t="s">
@@ -922,7 +933,7 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
@@ -975,7 +986,7 @@
       <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
@@ -1028,7 +1039,7 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C7" t="s">
@@ -1081,7 +1092,7 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C8" t="s">
@@ -1134,7 +1145,7 @@
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C9" t="s">
@@ -1187,7 +1198,7 @@
       <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C10" t="s">
@@ -1240,7 +1251,7 @@
       <c r="A11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C11" t="s">
@@ -1293,6 +1304,14 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
